--- a/data/test_collection_with_abstracts.xlsx
+++ b/data/test_collection_with_abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei.aioanei/Documents/GitHub/semantic-papers-filter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F488F5E-D80B-0E4B-B08B-05D3245B515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5CB90-F7CF-7140-8EC7-B7502158753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
   <si>
     <t>PMID</t>
   </si>
@@ -3373,42 +3373,6 @@
     <t>Ground Method Name</t>
   </si>
   <si>
-    <t>Is Relevant</t>
-  </si>
-  <si>
-    <t>Method Type</t>
-  </si>
-  <si>
-    <t>Method Name</t>
-  </si>
-  <si>
-    <t>{'architecture': 0.0, 'task': 0.0}</t>
-  </si>
-  <si>
-    <t>{'architecture': 1.0, 'context': 1.0, 'task': 1.0}</t>
-  </si>
-  <si>
-    <t>{'context': 1.0, 'architecture': 1.0, 'task': 0.5}</t>
-  </si>
-  <si>
-    <t>{'architecture': 0.0, 'task': 0.0, 'context': 0.0}</t>
-  </si>
-  <si>
-    <t>{'task': 1.0, 'context': 0.75, 'architecture': 0.0}</t>
-  </si>
-  <si>
-    <t>{'context': 0.5, 'architecture': 0.0, 'task': 0.0}</t>
-  </si>
-  <si>
-    <t>{'architecture': 1.0, 'context': 0.5, 'task': 0.5}</t>
-  </si>
-  <si>
-    <t>{'context': 0.5, 'task': 1.0, 'architecture': 0.0}</t>
-  </si>
-  <si>
-    <t>{'task': 0.5, 'architecture': 0.0, 'context': 0.0}</t>
-  </si>
-  <si>
     <t>Inceptionv3 neural networks</t>
   </si>
   <si>
@@ -5719,215 +5683,519 @@
     </r>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>pathology approach, media technique, testing dataset, technique, computer approach, vision approach, kidney approach, thickness study, training framework, approach, sampling, pathology characterize, framework, intima technique, intima made, deep learning</t>
-  </si>
-  <si>
-    <t>encoder module, input architecture, decoder architecture, MD architecture, encoder, decoder, module, aggregation architecture, feature module, lesion module, architecture, lesion architecture, decoder module, treatment strategies, strategies, deep-learning</t>
-  </si>
-  <si>
-    <t>cohort, protocol, ST models, ST for, performance quantify, sections, III cohort, neural network, cancer cohort, deep learning, grade sections, Inceptionv3, protocols, slide images, ST studies, models, T cohort, Stage cohort, images</t>
-  </si>
-  <si>
-    <t>plasmid strategy, cnn, capture as, microscopy, field microscopy, phages, M13 strategy, M13 phages, convolutional neural network, network, systems, field network, neural network, strategy</t>
-  </si>
-  <si>
-    <t>χ2 test, machine learning, rank test, NLST codes, ai model, sum test, CT identify, artificial intelligence, Pearson test</t>
-  </si>
-  <si>
-    <t>requirements, e in, health detect, Synthetic Warnings, - in, Health Warnings, cigarette brands, e brands, Synthetic nicotine, media, - brands, cigarette in, regression analyses, Instagram Warnings, health requirements, health evaluate, Nicotine Warnings, user evaluate, warning requirements, tobacco manufacturers</t>
-  </si>
-  <si>
-    <t>CAM tool, learning approach, CoV-2 approach, approach, Grad tool, CNN, cnn, HIV-1 model, SARS applied, CoV-2 applied, interpretability tool, phase approach, gan, SARS spectrograms, VGG-16 model, HIV-1 applied, tool, vgg, SARS to, transfer approach, CoV-2 spectrograms, transfer learning, spectrograms, model, SARS approach, VGG-16 applied, CoV-2 to</t>
-  </si>
-  <si>
-    <t>lung framework, step framework, system, size strategies, feature framework, point framework, framework, size for, chest, chest framework, radiographs, artificial intelligence, transplant framework, lung for, recipient reduce, mask framework, deep learning</t>
-  </si>
-  <si>
-    <t>learning method, Seg-CycleGAN, network, transfer method, kidney generate, strategy, segmentation method, segmentation obtain, kidney method, Seg network, tomography generate, gan, Transfer Learning Based, method, US method, translation network, image in, kidney in, transfer learning, US generate, deep-learning</t>
-  </si>
-  <si>
-    <t>learning compare, network model, Google model, Google images, window model, design features, convolutional neural network, Street model, neural model, Street images, View model, case model, computer model, neural network, deep learning, machine features, machine learning, features, Deep Learning Approach Passive, model, vision model, case as, learning features, images, View images, machine compare</t>
-  </si>
-  <si>
-    <t>information, foundation model, gpt, artificial intelligence</t>
-  </si>
-  <si>
-    <t>composition facilitate, SliceOmatic, plots, source AutoMATiCA, Bland plots, AutoMATiCA, correlation plots, body facilitate, tomography</t>
-  </si>
-  <si>
-    <t>statistics, basement from, N=254/266 in, PAS in, disease select, NEPTUNE in, Redundancy Relevance, proteinuria select, change from, CureGN from, image segmentations, deep-learning, Maximum Relevance, summary statistics</t>
-  </si>
-  <si>
-    <t>method, encoder, thickness to, autoencoder, scanners, methods, models, variational autoencoder, deep learning</t>
-  </si>
-  <si>
-    <t>OS framework, approach, regression method, regression network, segmentation framework, tumor framework, input approach, resonance method, survival without, window approach, tumor focusing, learning framework, tumor with, feature map, brain framework, method, map, unet, brain method, framework, matrix approach, survival network, resonance imaging, imaging leverage, brain with, imaging</t>
-  </si>
-  <si>
-    <t>learning implementing, study study, machine learning, them, methods, study principles, artificial intelligence, learning methods, neural network, deep learning</t>
-  </si>
-  <si>
-    <t>cnn, Feature network, EPC predict, deep neural, Regulatory network, Convolutional Neural Network, Matrix network, Gene network, Gene Regulatory Network, convolutional neural network, EPC infer, SVCV infer, network, SVCV predict, CNN, Network network, gan, neural network</t>
-  </si>
-  <si>
-    <t>control design, study study, design, case control, study design, control control, TCGA dataset, case design</t>
-  </si>
-  <si>
-    <t>uncertainty estimation, Deep, Instance method, instance in, test on, method, estimation, MIL reducing, neural suffered, artificial intelligence, training acquire, neural network, deep learning</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>{'context': 0.25, 'architecture': 1.0}</t>
-  </si>
-  <si>
-    <t>{'task': 1.0, 'architecture': 1.0, 'context': 0.75}</t>
-  </si>
-  <si>
-    <t>{'task': 1.0, 'architecture': 1.0, 'context': 0.25}</t>
-  </si>
-  <si>
-    <t>{'architecture': 1.0, 'context': 1.0, 'task': 0.5}</t>
-  </si>
-  <si>
-    <t>{'architecture': 1.0, 'context': 0.25, 'task': 1.0}</t>
-  </si>
-  <si>
-    <t>{'context': 0.25, 'task': 0.5, 'architecture': 0.0}</t>
-  </si>
-  <si>
-    <t>{'context': 0.25, 'architecture': 0.0, 'task': 0.0}</t>
-  </si>
-  <si>
-    <t>{'context': 0.25, 'architecture': 1.0, 'task': 0.5}</t>
-  </si>
-  <si>
-    <t>{'context': 1.0, 'architecture': 1.0}</t>
-  </si>
-  <si>
-    <t>{'task': 1.0, 'context': 1.0, 'architecture': 1.0}</t>
-  </si>
-  <si>
-    <t>Similarity Scores</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.3659791946411133}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.3273022472858429}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.38244327902793884}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.2876262366771698}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.1125103160738945}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.271595299243927}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.1729719340801239}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.28861474990844727}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.16059540212154388}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.19433438777923584}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.15445350110530853}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.2840840220451355}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.3966098725795746}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.3372344672679901}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.3862060010433197}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.4156630337238312}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.08572600781917572}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.33280929923057556}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.2853389084339142}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.1921899914741516}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.14596182107925415}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.11709101498126984}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.18362507224082947}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.25520724058151245}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.16349175572395325}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.39128535985946655}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.11896203458309174}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.29435834288597107}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.274456262588501}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.15291376411914825}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.48958808183670044}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.30693885684013367}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.16575561463832855}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.17195454239845276}</t>
-  </si>
-  <si>
-    <t>{'similarity': 0.37379103899002075}</t>
-  </si>
-  <si>
-    <t>Is Relevant by Similarity</t>
+    <t>38956213</t>
+  </si>
+  <si>
+    <t>The severity of dry eye symptoms and risk factors among university students in Saudi Arabia: a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Dry eye syndrome (DES) is a tear film disorder caused by increased tear evaporation or decreased production. The heavy workload on the eye and the increased usage of digital screens may decrease blink frequency, leading to an increased evaporation rate and an upsurge in the incidence and severity of DES. This study aims to assess the severity of DES symptoms and the risk factors among university students. A cross-sectional study was conducted at Umm AlQura University to evaluate the severity of DES among students and explore its potential association with digital screen use. Validated questionnaires were used to assess the severity of DES and digital screen usage. The study included 457 participants, of which 13% had symptoms suggestive of severe DES. Furthermore, multiple risk factors had a significant association with the severity of DES, including gender, use of monitor filters, monitor and room brightness, and smoking habits. DES symptoms were prevalent among university students, particularly female students. Although there was no significant association with the duration of screen usage and collage distribution. Other factors however, such as the usage of screen monitors and the brightness of both the monitor and the room, were significantly associated with the severity of DES symptoms.</t>
+  </si>
+  <si>
+    <t>38935799</t>
+  </si>
+  <si>
+    <t>ST-CellSeg: Cell segmentation for imaging-based spatial transcriptomics using multi-scale manifold learning</t>
+  </si>
+  <si>
+    <t>PLoS Comput Biol</t>
+  </si>
+  <si>
+    <t>38934830</t>
+  </si>
+  <si>
+    <t>Prevalence and Association of Digital Eye Strain with the Quality of Sleep and Feeling of Loneliness among Female College Students in Northern India</t>
+  </si>
+  <si>
+    <t>Indian J Public Health</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>INTRODUCTION: Because of COVID's impact on social behavior, students have become more reliant on computer-facilitated communication to continue their studies and interact with friends. While it is known that the association between screen exposure and psychological well-being is both harmful and stronger among adolescents than younger children, what is less studied are the causal factors that may mediate the relationship.
+OBJECTIVES: The objectives of this study were to analyze the relationship between screen exposure and two psychological outcomes, sleep quality and loneliness, using digital eye strain as a mediating factor. Eye strain is expected to have a direct and harmful influence on psychological well-being.
+MATERIALS AND METHODS: A structured and validated questionnaire was transcribed and administered online. A nonrepresentative sample of 497 female college students in a North Indian city participated in the study. Digital eye strain, quality of sleep, and feeling of loneliness scores were assessed using latent class analysis.
+RESULTS: The selected latent model suggested that Class 2 had a high percentage of students with network issues, the problem with space and noise, and various financial hardships, which had almost doubled the rate of loneliness (53.28%) and sleep-wake difficulties (75.41%) among the students affected with computer vision syndrome (89.75%).
+CONCLUSION: There is an urgent need to examine the implications of digital exposure across gender and age to prevent future complications. Further, awareness for improving holistic well-being in the digital era should be promoted through various platforms.</t>
+  </si>
+  <si>
+    <t>38926396</t>
+  </si>
+  <si>
+    <t>ROCOv2: Radiology Objects in COntext Version 2, an Updated Multimodal Image Dataset</t>
+  </si>
+  <si>
+    <t>Sci Data</t>
+  </si>
+  <si>
+    <t>38925254</t>
+  </si>
+  <si>
+    <t>AI-based opportunistic quantitative image analysis of lung cancer screening CTs to reduce disparities in osteoporosis screening</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatial transcriptomics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has gained popularity over the past decade due to its ability to evaluate transcriptome data while preserving spatial information. Cell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a crucial step in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spatial transcriptomic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> analysis, as it enables the avoidance of unpredictable tissue disentanglement steps. Although high-quality </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> algorithms can aid in the extraction of valuable data, traditional methods are frequently non-spatial, do not account for spatial information efficiently, and perform poorly when confronted with the problem of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spatial transcriptome cell segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with varying shapes. In this study, we propose ST-CellSeg, an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image-based machine learning method for spatial transcriptomics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that uses manifold for cell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and is novel in its consideration of multi-scale information. We first construct a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fully connected graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which acts as a spatial transcriptomic manifold. Using multi-scale data, we then determine the low-dimensional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spatial probability distribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> representation for cell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Using the adjusted Rand index (ARI), normalized mutual information (NMI), and Silhouette coefficient (SC) as model performance measures, the proposed algorithm significantly outperforms baseline models in selected datasets and is efficient in computational complexity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automated medical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> systems often require large amounts of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with high quality labels, which are difficult and time consuming to generate. This paper introduces Radiology Object in COntext version 2 (ROCOv2), a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multimodal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dataset consisting of radiological images and associated medical concepts and captions extracted from the PMC Open Access subset. It is an updated version of the ROCO dataset published in 2018, and adds 35,705 new images added to PMC since 2018. It further provides manually curated concepts for imaging modalities with additional anatomical and directional concepts for X-rays. The dataset consists of 79,789 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and has been used, with minor modifications, in the concept </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and caption prediction tasks of ImageCLEFmedical Caption 2023. The dataset is suitable for training</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> image annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> models based on image-caption pairs, or for multi-label </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image classification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using Unified Medical Language System (UMLS) concepts provided with each image. In addition, it can serve for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pre-training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of medical domain models, and evaluation of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> models for multi-task learning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osteoporosis is underdiagnosed, especially in ethnic and racial minorities who are thought to be protected against bone loss, but often have worse outcomes after an osteoporotic fracture. We aimed to determine the prevalence of osteoporosis by opportunistic CT in patients who underwent lung cancer screening (LCS) using non-contrast CT in the Northeastern United States. Demographics including race and ethnicity were retrieved. We assessed trabecular bone and body composition using a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fully-automated artificial intelligence algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. ROIs were placed at T12 vertebral body for attenuation measurements in Hounsfield Units (HU). Two validated thresholds were used to diagnose osteoporosis: high-sensitivity threshold (115-165 HU) and high specificity threshold (&lt;115 HU). We performed descriptive statistics and ANOVA to compare differences across sex, race, ethnicity, and income class according to neighborhoods' mean household incomes. Forward stepwise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">regression modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was used to determine body composition predictors of trabecular attenuation. We included 3708 patients (mean age 64 ± 7 years, 54 % males) who underwent LCS, had available demographic information and an evaluable CT for trabecular attenuation analysis. Using the high sensitivity threshold, osteoporosis was more prevalent in females (74 % vs. 65 % in males, p &lt; 0.0001) and Whites (72 % vs 49 % non-Whites, p &lt; 0.0001). However, osteoporosis was present across all races (38 % Black, 55 % Asian, 56 % Hispanic) and affected all income classes (69 %, 69 %, and 91 % in low, medium, and high-income class, respectively). High visceral/subcutaneous fat-ratio, aortic calcification, and hepatic steatosis were associated with low trabecular attenuation (p &lt; 0.01), whereas muscle mass was positively associated with trabecular attenuation (p &lt; 0.01). In conclusion, osteoporosis is prevalent across all races, income classes and both sexes in patients undergoing LCS. Opportunistic CT using a fully-automated algorithm and uniform imaging protocol is able to detect osteoporosis and body composition without additional testing or radiation. Early identification of patients traditionally thought to be at low risk for bone loss will allow for initiating appropriate treatment to prevent future fragility fractures. CLINICALTRIALS.GOV IDENTIFIER: N/A.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5949,12 +6217,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6044,16 +6306,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6358,31 +6620,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="107.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="124.1640625" customWidth="1"/>
-    <col min="12" max="12" width="59.5" customWidth="1"/>
-    <col min="13" max="13" width="40.5" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6401,32 +6657,14 @@
       <c r="F1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>233</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6442,20 +6680,8 @@
       <c r="F2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" ht="259" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6474,32 +6700,14 @@
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6518,32 +6726,14 @@
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>200</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="332" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="332" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6562,32 +6752,14 @@
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -6606,32 +6778,14 @@
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" t="s">
-        <v>202</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -6650,32 +6804,14 @@
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M7" t="s">
-        <v>203</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -6694,20 +6830,8 @@
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" t="s">
-        <v>204</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -6721,25 +6845,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
-        <v>205</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -6758,20 +6870,8 @@
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="s">
-        <v>206</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:14" ht="365" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="365" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -6790,29 +6890,11 @@
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" t="s">
-        <v>207</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" ht="259" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -6831,20 +6913,8 @@
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s">
-        <v>208</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -6863,29 +6933,11 @@
       <c r="F13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -6904,20 +6956,8 @@
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s">
-        <v>210</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -6936,29 +6976,11 @@
       <c r="F15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" t="s">
-        <v>211</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:14" ht="261" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -6977,29 +6999,11 @@
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" t="s">
-        <v>212</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:14" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -7018,29 +7022,11 @@
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" t="s">
-        <v>213</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:14" ht="224" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -7059,20 +7045,8 @@
       <c r="F18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" t="s">
-        <v>214</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:14" ht="185" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -7086,37 +7060,19 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="151" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -7130,25 +7086,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" t="s">
-        <v>216</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:14" ht="244" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="244" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -7162,34 +7106,16 @@
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" t="s">
-        <v>192</v>
-      </c>
-      <c r="M21" t="s">
-        <v>217</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -7208,20 +7134,8 @@
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:14" ht="304" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -7240,20 +7154,8 @@
       <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" t="s">
-        <v>219</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -7272,20 +7174,8 @@
       <c r="F24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" t="s">
-        <v>220</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -7304,29 +7194,11 @@
       <c r="F25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" t="s">
-        <v>221</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -7345,25 +7217,13 @@
       <c r="F26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" t="s">
-        <v>222</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:14" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>44</v>
@@ -7372,150 +7232,88 @@
         <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H27"/>
-      <c r="I27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" t="s">
-        <v>223</v>
-      </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="5"/>
       <c r="H28"/>
-      <c r="I28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" t="s">
-        <v>224</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:14" ht="208" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H29"/>
-      <c r="I29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:14" ht="304" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="5"/>
       <c r="H30"/>
-      <c r="I30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>193</v>
-      </c>
-      <c r="M30" t="s">
-        <v>226</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -7524,225 +7322,240 @@
         <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="5"/>
       <c r="H31"/>
-      <c r="I31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>193</v>
-      </c>
-      <c r="M31" t="s">
-        <v>227</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:14" ht="166" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>160</v>
+      <c r="G32" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="H32"/>
-      <c r="I32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" t="s">
-        <v>228</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>162</v>
+      <c r="G33" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="H33"/>
-      <c r="I33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" t="s">
-        <v>183</v>
-      </c>
-      <c r="L33" t="s">
-        <v>195</v>
-      </c>
-      <c r="M33" t="s">
-        <v>229</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="5"/>
       <c r="H34"/>
-      <c r="I34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>110</v>
-      </c>
-      <c r="M34" t="s">
-        <v>230</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="5"/>
       <c r="H35"/>
-      <c r="I35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" t="s">
-        <v>184</v>
-      </c>
-      <c r="L35" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" t="s">
-        <v>231</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H36"/>
-      <c r="I36" s="3" t="b">
+    </row>
+    <row r="37" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
+      <c r="G38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K36" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" t="b">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="G39" s="11"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/test_collection_with_abstracts.xlsx
+++ b/data/test_collection_with_abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei.aioanei/Documents/GitHub/semantic-papers-filter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5CB90-F7CF-7140-8EC7-B7502158753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2644B-F461-DE4D-A901-AE3B434A10C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="240">
   <si>
     <t>PMID</t>
   </si>
@@ -751,9 +751,6 @@
     </r>
   </si>
   <si>
-    <t>convolutional neural network</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Triple-negative breast cancer (TNBC) is a subtype of breast cancer with a poor prognosis and limited treatment options. This study evaluates the prognostic value of stromal markers in TNBC, focusing on the tumor-stroma ratio (TSR) and overall stroma ratio (OSR) in whole slide </t>
     </r>
@@ -799,9 +796,6 @@
       </rPr>
       <t xml:space="preserve"> (DIA). A total of 101 female TNBC patients, primarily treated with surgery between 2005 and 2016, were included. We found that high visual OSR correlates with worse overall survival (OS), advanced pN categories, lower stromal tumor-infiltrating lymphocyte count (sTIL), lower mitotic index, and patient age (p &amp;lt; 0.05). TSR showed significant connections to the pN category and mitotic index (p &amp;lt; 0.01). High expression levels of type-I collagen (&amp;gt;45%), type-III collagen (&amp;gt;30%), and fibrillin-1 (&amp;gt;20%) were linked to significantly worse OS (p = 0.004, p = 0.013, and p = 0.005, respectively) and progression-free survival (PFS) (p = 0.028, p = 0.025, and p = 0.002, respectively), validated at the mRNA level. Our results highlight the importance of stromal characteristics in promoting tumor progression and metastasis and that targeting extracellular matrix (ECM) components may offer novel therapeutic strategies. Furthermore, DIA can be more accurate and objective in evaluating TSR, OSR, and immunodetected stromal markers than traditional visual examination.</t>
     </r>
-  </si>
-  <si>
-    <t>both</t>
   </si>
   <si>
     <r>
@@ -3373,12 +3367,6 @@
     <t>Ground Method Name</t>
   </si>
   <si>
-    <t>Inceptionv3 neural networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> multistructure segmentation model and ensemble AI models</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Modern </t>
     </r>
@@ -3529,9 +3517,6 @@
       </rPr>
       <t xml:space="preserve"> data. We showcase how tailored decisions and structured approaches lead to successful outcomes in RDM practices.</t>
     </r>
-  </si>
-  <si>
-    <t>BiomedGPT</t>
   </si>
   <si>
     <r>
@@ -5153,9 +5138,6 @@
     </r>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5366,9 +5348,6 @@
       </rPr>
       <t>. This integration considers the specificity of each feature and their interactive information, resulting in a more comprehensive and precise feature representation during the fusion process. Experimental results from both real-world and benchmark datasets demonstrate that MEFFGRN achieves competitive performance compared with state-of-the-art computational methods. Furthermore, study findings from SVCV-infected EPC cells suggest that MEFFGRN can predict novel gene regulatory relationships.</t>
     </r>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
   <si>
     <r>
@@ -6190,12 +6169,1153 @@
       <t>was used to determine body composition predictors of trabecular attenuation. We included 3708 patients (mean age 64 ± 7 years, 54 % males) who underwent LCS, had available demographic information and an evaluable CT for trabecular attenuation analysis. Using the high sensitivity threshold, osteoporosis was more prevalent in females (74 % vs. 65 % in males, p &lt; 0.0001) and Whites (72 % vs 49 % non-Whites, p &lt; 0.0001). However, osteoporosis was present across all races (38 % Black, 55 % Asian, 56 % Hispanic) and affected all income classes (69 %, 69 %, and 91 % in low, medium, and high-income class, respectively). High visceral/subcutaneous fat-ratio, aortic calcification, and hepatic steatosis were associated with low trabecular attenuation (p &lt; 0.01), whereas muscle mass was positively associated with trabecular attenuation (p &lt; 0.01). In conclusion, osteoporosis is prevalent across all races, income classes and both sexes in patients undergoing LCS. Opportunistic CT using a fully-automated algorithm and uniform imaging protocol is able to detect osteoporosis and body composition without additional testing or radiation. Early identification of patients traditionally thought to be at low risk for bone loss will allow for initiating appropriate treatment to prevent future fragility fractures. CLINICALTRIALS.GOV IDENTIFIER: N/A.</t>
     </r>
   </si>
+  <si>
+    <t>38922025</t>
+  </si>
+  <si>
+    <t>Automated Nuclear Morphometry: A Deep Learning Approach for Prognostication in Canine Pulmonary Carcinoma to Enhance Reproducibility</t>
+  </si>
+  <si>
+    <t>Vet Sci</t>
+  </si>
+  <si>
+    <t>38912211</t>
+  </si>
+  <si>
+    <t>MpoxNet: dual-branch deep residual squeeze and excitation monkeypox classification network with attention mechanism</t>
+  </si>
+  <si>
+    <t>Front Cell Infect Microbiol</t>
+  </si>
+  <si>
+    <t>38906615</t>
+  </si>
+  <si>
+    <t>Automated cooling tower detection through deep learning for Legionnaires' disease outbreak investigations: a model development and validation study</t>
+  </si>
+  <si>
+    <t>Lancet Digit Health</t>
+  </si>
+  <si>
+    <t>38897031</t>
+  </si>
+  <si>
+    <t>Multi-detector fusion and Bayesian smoothing for tracking viral and chromatin structures</t>
+  </si>
+  <si>
+    <t>38886407</t>
+  </si>
+  <si>
+    <t>Multivariate testing and effect size measures for batch effect evaluation in radiomic features</t>
+  </si>
+  <si>
+    <t>38885231</t>
+  </si>
+  <si>
+    <t>Classification of white blood cells (leucocytes) from blood smear imagery using machine and deep learning models: A global scoping review</t>
+  </si>
+  <si>
+    <t>38881651</t>
+  </si>
+  <si>
+    <t>Microbiome-driven alterations in metabolic pathways and impaired cognition in aged female TgF344-AD rats</t>
+  </si>
+  <si>
+    <t>Aging Brain</t>
+  </si>
+  <si>
+    <t>38865594</t>
+  </si>
+  <si>
+    <t>Prevalence of Computer Vision Syndrome and Its Risk Factors in a Spanish University Population</t>
+  </si>
+  <si>
+    <t>Eye Contact Lens</t>
+  </si>
+  <si>
+    <t>38853172</t>
+  </si>
+  <si>
+    <t>Improved Latin hypercube sampling initialization-based whale optimization algorithm for COVID-19 X-ray multi-threshold image segmentation</t>
+  </si>
+  <si>
+    <t>38850591</t>
+  </si>
+  <si>
+    <t>Hypothalamic MRI-derived microstructure is associated with neurocognitive aging in humans</t>
+  </si>
+  <si>
+    <t>Neurobiol Aging</t>
+  </si>
+  <si>
+    <t>The hypothalamus regulates homeostasis across the lifespan and is emerging as a regulator of aging. In murine models, aging-related changes in the hypothalamus, including microinflammation and gliosis, promote accelerated neurocognitive decline. We investigated relationships between hypothalamic microstructure and features of neurocognitive aging, including cortical thickness and cognition, in a cohort of community-dwelling older adults (age range 65-97 years, n=124). Hypothalamic microstructure was evaluated with two magnetic resonance imaging diffusion metrics: mean diffusivity (MD) and fractional anisotropy (FA), using a novel image processing pipeline. Hypothalamic MD was cross-sectionally positively associated with age and it was negatively associated with cortical thickness. Hypothalamic FA, independent of cortical thickness, was cross-sectionally positively associated with neurocognitive scores. An exploratory analysis of longitudinal neurocognitive performance suggested that lower hypothalamic FA may predict cognitive decline. No associations between hypothalamic MD, age, and cortical thickness were identified in a younger control cohort (age range 18-63 years, n=99). To our knowledge, this is the first study to demonstrate that hypothalamic microstructure is associated with features of neurocognitive aging in humans.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The integration of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-based tools into diagnostic workflows is increasingly prevalent due to their efficiency and reproducibility in various settings. We investigated the utility of automated nuclear morphometry for assessing nuclear pleomorphism (NP), a criterion of malignancy in the current grading system in canine pulmonary carcinoma (cPC), and its prognostic implications. We developed a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-based algorithm for evaluating NP (variation in size, i.e., anisokaryosis and/or shape) using a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Its performance was evaluated on 46 cPC cases with comprehensive follow-up data regarding its accuracy in nuclear </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and its prognostic ability. Its assessment of NP was compared to manual morphometry and established prognostic tests (pathologists' NP estimates (n = 11), mitotic count, histological grading, and TNM-stage). The standard deviation (SD) of the nuclear area, indicative of anisokaryosis, exhibited good discriminatory ability for tumor-specific survival, with an area under the curve (AUC) of 0.80 and a hazard ratio (HR) of 3.38. The algorithm achieved values comparable to manual morphometry. In contrast, the pathologists' estimates of anisokaryosis resulted in HR values ranging from 0.86 to 34.8, with slight inter-observer reproducibility (k = 0.204). Other conventional tests had no significant prognostic value in our study cohort. Fully automated morphometry promises a time-efficient and reproducible assessment of NP with a high prognostic value. Further refinement of the algorithm, particularly to address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undersegmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and application to a larger study population are required.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While the world struggles to recover from the devastation wrought by the widespread spread of COVID-19, monkeypox virus has emerged as a new global pandemic threat. In this paper, a high precision and lightweight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classification network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MpoxNet based on ConvNext is proposed to meet the need of fast and safe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of monkeypox </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In this method, a two-branch depth-separable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>convolution residual Squeeze and Excitation module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is designed. This design aims to extract more feature information with two branches, and greatly reduces the number of parameters in the model by using depth-separable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>convolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In addition, our method introduces a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>convolutional attention module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to enhance the extraction of key features within the receptive field. The experimental results show that MpoxNet has achieved remarkable results in monkeypox </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disease classification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the accuracy rate is 95.28%, the precision rate is 96.40%, the recall rate is 93.00%, and the F1-Score is 95.80%. This is significantly better than the current mainstream classification model. It is worth noting that the FLOPS and the number of parameters of MpoxNet are only 30.68% and 31.87% of those of ConvNext-Tiny, indicating that the model has a small </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computational</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burden and model complexity while efficient performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BACKGROUND: Cooling towers containing Legionella spp are a high-risk source of Legionnaires' disease outbreaks. Manually locating cooling towers from aerial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imagery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during outbreak investigations requires expertise, is labour intensive, and can be prone to errors. We aimed to train a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computer vision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to automatically </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cooling towers that are aerially visible.
+METHODS: Between Jan 1 and 31, 2021, we extracted satellite view </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Philadelphia (PN, USA) and New York state (NY, USA) from Google Maps and annotated cooling towers to create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. We augmented </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synthetic data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and model-assisted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>labelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of additional cities. Using 2051 images containing 7292 cooling towers, we trained a two-stage model using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YOLOv5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a model that detects objects in images, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EfficientNet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-b5, a model that classifies images. We assessed the primary outcomes of sensitivity and positive predictive value (PPV) of the model against manual labelling on test datasets of 548 images, including from two cities not seen in training (Boston [MA, USA] and Athens [GA, USA]). We compared the search speed of the model with that of manual searching by four epidemiologists.
+FINDINGS: The model identified visible cooling towers with 95·1% sensitivity (95% CI 94·0-96·1) and a PPV of 90·1% (95% CI 90·0-90·2) in New York City and Philadelphia. In Boston, sensitivity was 91·6% (89·2-93·7) and PPV was 80·8% (80·5-81·2). In Athens, sensitivity was 86·9% (75·8-94·2) and PPV was 85·5% (84·2-86·7). For an area of New York City encompassing 45 blocks (0·26 square miles), the model searched more than 600 times faster (7·6 s; 351 potential cooling towers identified) than did human investigators (mean 83·75 min [SD 29·5]; mean 310·8 cooling towers [42·2]).
+INTERPRETATION: The model could be used to accelerate investigation and source control during outbreaks of Legionnaires' disease through the identification of cooling towers from aerial imagery, potentially preventing additional disease spread. The model has already been used by public health teams for outbreak investigations and to initialise cooling tower registries, which are considered best practice for preventing and responding to outbreaks of Legionnaires' disease.
+FUNDING: None.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automatic tracking of viral and intracellular structures displayed as spots with varying sizes in fluorescence microscopy images is an important task to quantify cellular processes. We propose a novel probabilistic tracking approach for multiple particle tracking based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multi-detector and multi-scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data fusion as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bayesian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> smoothing. The approach integrates results from multiple detectors using a novel intensity-based covariance intersection method which takes into account information about the image intensities, positions, and uncertainties. The method ensures a consistent estimate of multiple fused particle detections and does not require an optimization step. Our probabilistic tracking approach performs data fusion of detections from classical and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods as well as exploits single-scale and multi-scale detections. In addition, we use Bayesian smoothing to fuse information of predictions from both past and future time points. We evaluated our approach using image data of the Particle Tracking Challenge and achieved state-of-the-art results or outperformed previous methods. Our method was also assessed on challenging live cell fluorescence microscopy image data of viral and cellular proteins expressed in hepatitis C virus-infected cells and chromatin structures in non-infected cells, acquired at different spatial-temporal resolutions. We found that the proposed approach outperforms existing methods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While precision medicine applications of radiomics analysis are promising, differences in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image acquisition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can cause "batch effects" that reduce reproducibility and affect downstream predictive analyses. Harmonization methods such as ComBat have been developed to correct these effects, but evaluation methods for quantifying batch effects are inconsistent. In this study, we propose the use of the multivariate statistical test PERMANOVA and the Robust Effect Size Index (RESI) to better quantify and characterize batch effects in radiomics data. We evaluate these methods in both simulated and real radiomics features extracted from full-field digital mammography (FFDM) data. PERMANOVA demonstrated higher power than standard univariate statistical testing, and RESI was able to interpretably quantify the effect size of site at extremely large sample sizes. These methods show promise as more powerful and interpretable methods for the detection and quantification of batch effects in radiomics studies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Machine learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ML) and d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (DL) models are being increasingly employed for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medical imagery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> analyses, with both approaches used to enhance the accuracy of classification/prediction in the diagnoses of various cancers, tumors and bloodborne diseases. To date however, no review of these techniques and their application(s) within the domain of white blood cell (WBC) classification in blood smear images has been undertaken, representing a notable knowledge gap with respect to model selection and comparison. Accordingly, the current study sought to comprehensively identify, explore and contrast ML and DL methods for classifying WBCs. Following development and implementation of a formalized review protocol, a cohort of 136 primary studies published between January 2006 and May 2023 were identified from the global literature, with the most widely used techniques and best-performing WBC classification methods subsequently ascertained. Studies derived from 26 countries, with highest numbers from high-income countries including the United States (n = 32) and The Netherlands (n = 26). While WBC classification was originally rooted in conventional ML, there has been a notable shift toward the use of DL, and particularly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>convolutional neural networks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CNN), with 54.4% of identified studies (n = 74) including the use of CNNs, and particularly in concurrence with larger datasets and bespoke features e.g., parallel data pre-processing, feature selection, and extraction. While some conventional ML models achieved up to 99% accuracy, accuracy was shown to decrease in concurrence with decreasing dataset size. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> models exhibited improved performance for more extensive datasets and exhibited higher levels of accuracy in concurrence with increasingly large datasets. Availability of appropriate datasets remains a primary challenge, potentially resolvable using data augmentation techniques. Moreover, medical training of computer science researchers is recommended to improve current understanding of leucocyte structure and subsequent selection of appropriate classification models. Likewise, it is critical that future health professionals be made aware of the power, efficacy, precision and applicability of computer science, soft computing and artificial intelligence contributions to medicine, and particularly in areas like medical imaging.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alzheimer's disease (AD) not only affects cognition and neuropathology, but several other facets capable of negatively impacting quality of life and potentially driving impairments, including altered gut microbiome (GMB) composition and metabolism. Aged (20 + mo) female TgF344-AD and wildtype rats were cognitively characterized on several tasks incorporating several cognitive domains, including task acquisition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recognition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> memory, anxiety-like behaviors, and spatial navigation. Additionally, metabolic phenotyping, GMB sequencing throughout the intestinal tract (duodenum, jejunum, ileum, colon, and feces), neuropathological burden assessment and marker gene functional abundance predictions (PICRUSt2) were conducted. TgF344-AD rats demonstrated significant cognitive impairment in multiple domains, as well as regionally specific GMB dysbiosis. Relationships between peripheral factors were investigated using Canonical Correspondence Analysis (CCA), revealing correlations between GMB changes and both cognitive and metabolic factors. Moreover, communities of gut microbes contributing to essential metabolic pathways were significantly altered in TgF344-AD rats. These data indicate dysbiosis may affect cognitive outcomes in AD through alterations in metabolism-related enzymatic pathways that are necessary for proper brain function. Moreover, these changes were mostly observed in intestinal segments required for carbohydrate digestion, not fecal samples. These data support the targeting of intestinal and microbiome health for the treatment of AD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OBJECTIVES: To determine the prevalence of digital eye strain or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computer vision syndrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CVS) and its risk factors in a university population (University of Valladolid, Spain).
+METHODS: An anonymous cross-sectional online survey was conducted in a university population [staff (lecturers and administrative employees) and students (undergraduate, master's, and PhD)], including two validated questionnaires (Ocular Surface Disease Index [OSDI] and the 17-item Computer-Vision Symptom Scale questionnaire [CVSS17]) and questions about sociodemographic data and visual display terminal use. The prevalence and risk factors for CVS (CVSS17≥29) (multivariate logistic regression model) were calculated.
+RESULTS: One thousand nine participants responded to the survey (35.2±15.2 years; 64.1% women). The mean OSDI and CVSS17 questionnaire scores were 18.9±15.6 and 31.5±6.4, respectively, and 35.4% of the respondents had dry eye symptoms (OSDI&gt;22). The total prevalence of CVS was 65.4% (95% CI 62.1-68.3). Undergraduate students showed the highest CVS prevalence (72.6%; P &lt;0.01), which was significant. In addition, women, participants younger than 36 years old, contact lens wearers, and subjects with dry eye symptoms reported a statistically higher CVSS17 score ( P ≤0.01). In the multivariate model, significant factors associated with the presence of CVS ( P ≤0.03) were female sex (OR=2.10; 95% CI 1.54-2.88), dry eye symptoms (OSDI&gt;22) (OR=16.98; 95% CI 10.36-27.84), VTD use ≥6 hr daily (OR=1.96; 95% CI 1.09-3.52), and being an undergraduate student (OR=2.23; 95% CI 1.54-3.24).
+CONCLUSION: A high prevalence (65.4%) of CVS was found among the Spanish university population, with the undergraduate student group having the highest prevalence (72.6%). Female sex, more than 6 hr/day of visual display terminal use, being an undergraduate student, and dry eye symptoms significantly increased the risk of CVS in the university population.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> techniques play a vital role in aiding COVID-19 diagnosis. Multi-threshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods are favored for their computational simplicity and operational efficiency. Existing threshold selection techniques in multi-threshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as Kapur based on exhaustive enumeration, often hamper efficiency and accuracy. The whale optimization algorithm (WOA) has shown promise in addressing this challenge, but issues persist, including poor stability, low efficiency, and accuracy in COVID-19 threshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. To tackle these issues, we introduce a Latin hypercube sampling initialization-based multi-strategy enhanced WOA (CAGWOA). It incorporates a COS sampling initialization strategy (COSI), an adaptive global search approach (GS), and an all-dimensional neighborhood mechanism (ADN). COSI leverages probability density functions created from Latin hypercube sampling, ensuring even solution space coverage to improve the stability of the segmentation model. GS widens the exploration scope to combat stagnation during iterations and improve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> efficiency. ADN refines convergence accuracy around optimal individuals to improve segmentation accuracy. CAGWOA's performance is validated through experiments on various benchmark function test sets. Furthermore, we apply CAGWOA alongside similar methods in a multi-threshold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image segmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> model for comparative experiments on lung X-ray images of infected patients. The results demonstrate CAGWOA's superiority, including better image detail preservation, clear segmentation boundaries, and adaptability across different threshold levels.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ground Reasoning</t>
+  </si>
+  <si>
+    <t>irrelevant domain/neuroscience</t>
+  </si>
+  <si>
+    <t>irrelevant domain/arteriosclerosis</t>
+  </si>
+  <si>
+    <t>U-Net</t>
+  </si>
+  <si>
+    <t>relevant domain and patterns</t>
+  </si>
+  <si>
+    <t>irrelevant domain/oncology</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>AI-based segmentation</t>
+  </si>
+  <si>
+    <t>irrelevant domain/syndrome</t>
+  </si>
+  <si>
+    <t>irrelevant domain/data management</t>
+  </si>
+  <si>
+    <t>irrelevant domain/breast cancer</t>
+  </si>
+  <si>
+    <t>irrelevant domain/cigarette</t>
+  </si>
+  <si>
+    <t>irrelevant domain/radiology</t>
+  </si>
+  <si>
+    <t>VGG-16</t>
+  </si>
+  <si>
+    <t>irrelevant domain/fMRI</t>
+  </si>
+  <si>
+    <t>irrelevant domain/transplantation</t>
+  </si>
+  <si>
+    <t>irrelevant domain/kidney</t>
+  </si>
+  <si>
+    <t>irrelevant domain/urban planning</t>
+  </si>
+  <si>
+    <t>irrelevant domain/cohort methods</t>
+  </si>
+  <si>
+    <t>irrelevant domain/neuroimaging</t>
+  </si>
+  <si>
+    <t>irrelevant domain/imaging techniques</t>
+  </si>
+  <si>
+    <t>irrelevant domain/optical imaging</t>
+  </si>
+  <si>
+    <t>irrelevant domain/MRI techniques</t>
+  </si>
+  <si>
+    <t>irrelevant domain/kidney disease</t>
+  </si>
+  <si>
+    <t>irrelevant domain/cardiology</t>
+  </si>
+  <si>
+    <t>no deep learning</t>
+  </si>
+  <si>
+    <t>irrelevant domain/CT imaging</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>irrelevant domain/MRI imaging</t>
+  </si>
+  <si>
+    <t>irrelevant domain/ophthalmology</t>
+  </si>
+  <si>
+    <t>irrelevant domain/transcriptomics</t>
+  </si>
+  <si>
+    <t>irrelevant domain/psychology</t>
+  </si>
+  <si>
+    <t>irrelevant domain/medical imaging</t>
+  </si>
+  <si>
+    <t>irrelevant domain/osteoporosis</t>
+  </si>
+  <si>
+    <t>ConvNext</t>
+  </si>
+  <si>
+    <t>YOLOv5, EfficientNet-b5</t>
+  </si>
+  <si>
+    <t>irrelevant domain/blood cell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6218,8 +7338,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6234,18 +7360,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6268,17 +7400,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6294,30 +7415,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6620,610 +7737,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="107.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="111" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>106</v>
+      <c r="I1" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="b">
+      <c r="F2" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="259" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>80</v>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="1" t="b">
+      <c r="F4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>80</v>
+      <c r="H4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="332" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>107</v>
+      <c r="E5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="1" t="b">
+      <c r="F6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>85</v>
+      <c r="H6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="1" t="b">
+      <c r="E7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>108</v>
+      <c r="H7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="b">
+      <c r="F8" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I8" s="11" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="1" t="b">
+      <c r="E9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="1" t="b">
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I10" s="11" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>87</v>
+      <c r="E11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="259" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="1" t="b">
+      <c r="E12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I12" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="1" t="b">
+      <c r="E13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="H13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1" t="b">
+      <c r="E14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>81</v>
+      <c r="E15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="261" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>81</v>
+      <c r="E16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="b">
+      <c r="E17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>81</v>
+      <c r="I17" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="b">
+      <c r="E18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" ht="185" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>110</v>
+      <c r="E19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="151" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="1" t="b">
+      <c r="E20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" ht="244" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="244" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="1" t="b">
+      <c r="E21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>81</v>
+      <c r="I21" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="1" t="b">
+      <c r="E22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" ht="304" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="1" t="b">
+      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1" t="b">
+      <c r="E24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>81</v>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="1" t="b">
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>44</v>
@@ -7231,89 +8394,91 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27"/>
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="1" t="b">
+      <c r="E28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29"/>
+      <c r="E29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="1" t="b">
+      <c r="E30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H30"/>
+      <c r="I30" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -7321,241 +8486,487 @@
       <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="1" t="b">
+      <c r="E31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" ht="166" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="1" t="b">
+      <c r="E32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32"/>
+      <c r="G32" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="1" t="b">
+      <c r="E33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33"/>
+      <c r="G33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="1" t="b">
+      <c r="E34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="1" t="b">
+      <c r="E35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36"/>
+      <c r="E36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="1" t="b">
+      <c r="E37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37"/>
+      <c r="I37" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38"/>
+      <c r="E38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" t="s">
-        <v>167</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40"/>
+      <c r="E40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="304" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="1" t="b">
+      <c r="B44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41"/>
+      <c r="G44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="288" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/test_collection_with_abstracts.xlsx
+++ b/data/test_collection_with_abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei.aioanei/Documents/GitHub/semantic-papers-filter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2644B-F461-DE4D-A901-AE3B434A10C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501EFE0-C141-6D47-81A8-54A51335EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="239">
   <si>
     <t>PMID</t>
   </si>
@@ -7219,9 +7219,6 @@
   </si>
   <si>
     <t>CNN</t>
-  </si>
-  <si>
-    <t>AI-based segmentation</t>
   </si>
   <si>
     <t>irrelevant domain/syndrome</t>
@@ -7404,7 +7401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7435,6 +7432,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7739,8 +7737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7926,16 +7924,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" x14ac:dyDescent="0.2">
@@ -7958,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
@@ -7981,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="176" x14ac:dyDescent="0.2">
@@ -8004,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="350" x14ac:dyDescent="0.2">
@@ -8027,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="259" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="212" customHeight="1" x14ac:dyDescent="0.2">
@@ -8076,7 +8068,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I13" t="s">
         <v>207</v>
@@ -8102,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.2">
@@ -8125,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.2">
@@ -8148,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
@@ -8171,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="224" x14ac:dyDescent="0.2">
@@ -8194,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.2">
@@ -8217,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="151" customHeight="1" x14ac:dyDescent="0.2">
@@ -8240,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="244" customHeight="1" x14ac:dyDescent="0.2">
@@ -8286,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
@@ -8309,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="240" x14ac:dyDescent="0.2">
@@ -8332,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="272" x14ac:dyDescent="0.2">
@@ -8355,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="288" x14ac:dyDescent="0.2">
@@ -8378,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
@@ -8401,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="160" x14ac:dyDescent="0.2">
@@ -8470,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="256" x14ac:dyDescent="0.2">
@@ -8493,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="166" customHeight="1" x14ac:dyDescent="0.2">
@@ -8516,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>80</v>
@@ -8568,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="272" x14ac:dyDescent="0.2">
@@ -8614,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="160" x14ac:dyDescent="0.2">
@@ -8637,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="160" x14ac:dyDescent="0.2">
@@ -8660,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="240" x14ac:dyDescent="0.2">
@@ -8683,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.2">
@@ -8706,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="272" x14ac:dyDescent="0.2">
@@ -8729,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="192" x14ac:dyDescent="0.2">
@@ -8778,7 +8770,7 @@
         <v>81</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="304" x14ac:dyDescent="0.2">
@@ -8804,7 +8796,7 @@
         <v>81</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="176" x14ac:dyDescent="0.2">
@@ -8873,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="192" x14ac:dyDescent="0.2">
@@ -8896,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="256" x14ac:dyDescent="0.2">
@@ -8919,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="208" x14ac:dyDescent="0.2">
@@ -8942,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="160" x14ac:dyDescent="0.2">
@@ -8965,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_collection_with_abstracts.xlsx
+++ b/data/test_collection_with_abstracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei.aioanei/Documents/GitHub/semantic-papers-filter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501EFE0-C141-6D47-81A8-54A51335EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D63F4-2821-BD42-952B-98D72ECE1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="237">
   <si>
     <t>PMID</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Radiology</t>
   </si>
   <si>
-    <t>39285189</t>
-  </si>
-  <si>
     <t>CVS-Q teen: an adapted, reliable and validated tool to assess computer vision syndrome in adolescents</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>Ultrasound Med Biol</t>
-  </si>
-  <si>
-    <t>39155966</t>
   </si>
   <si>
     <t>Examining the Role of Passive Design Indicators in Energy Burden Reduction: Insights from a Machine Learning and Deep Learning Approach</t>
@@ -7401,7 +7395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7432,7 +7426,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7737,8 +7730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7771,16 +7764,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="259" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,13 +7810,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="233" customHeight="1" x14ac:dyDescent="0.2">
@@ -7840,19 +7833,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.2">
@@ -7869,13 +7862,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="272" x14ac:dyDescent="0.2">
@@ -7892,19 +7885,19 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="304" x14ac:dyDescent="0.2">
@@ -7921,21 +7914,21 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>214</v>
+      <c r="I7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>39285189</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -7944,533 +7937,533 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="350" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1">
+        <v>39155966</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="244" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F27" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -8479,142 +8472,142 @@
         <v>8</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F31" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F32" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F34" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F35" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F36" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -8623,211 +8616,211 @@
         <v>8</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F38" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F39" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F40" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F41" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F42" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="304" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -8836,90 +8829,90 @@
         <v>8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F46" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="288" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F47" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F48" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F49" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -8928,36 +8921,36 @@
         <v>8</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F50" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F51" s="9" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
